--- a/QAStar/QLearning.xlsx
+++ b/QAStar/QLearning.xlsx
@@ -11,43 +11,12 @@
     <sheet name="lr.5dr.5max500ep150" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="output" localSheetId="1">lr.5dr.5max500ep150!$A$2:$E$50</definedName>
-    <definedName name="output" localSheetId="0">lr1dr.9max500ep150!$A$2:$E$50</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="output" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" firstRow="2" sourceFile="C:\Users\Frank\workspace\RAH-HW2-QAStar\output.csv" tab="0" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="output1" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" firstRow="2" sourceFile="C:\Users\Frank\workspace\RAH-HW2-QAStar\output.csv" comma="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Starting position</t>
   </si>
@@ -206,6 +175,21 @@
   </si>
   <si>
     <t>(7, 0)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -255,14 +239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,50 +556,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>31.38</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>31.38</v>
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>34.869999999999997</v>
+        <v>160.57</v>
       </c>
       <c r="D3">
-        <v>28.24</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>160.57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>178.41</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>144.51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,67 +607,67 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>43.05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>43.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>47.83</v>
+        <v>220.26</v>
       </c>
       <c r="D6">
-        <v>38.74</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>47.83</v>
+        <v>220.26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>53.14</v>
+        <v>244.73</v>
       </c>
       <c r="D7">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>271.93</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>220.26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -699,13 +675,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>65.61</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -716,237 +692,237 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>28.24</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>28.24</v>
+        <v>335.71</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>34.869999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>31.38</v>
+        <v>144.51</v>
       </c>
       <c r="C11">
-        <v>31.38</v>
+        <v>144.51</v>
       </c>
       <c r="D11">
-        <v>31.38</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>38.74</v>
+        <v>178.41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>160.57</v>
       </c>
       <c r="C12">
-        <v>34.869999999999997</v>
+        <v>160.57</v>
       </c>
       <c r="D12">
-        <v>34.869999999999997</v>
+        <v>160.57</v>
       </c>
       <c r="E12">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>38.74</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>38.74</v>
+        <v>178.41</v>
       </c>
       <c r="D13">
-        <v>38.74</v>
+        <v>178.41</v>
       </c>
       <c r="E13">
-        <v>47.83</v>
+        <v>220.26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
       <c r="C14">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
       <c r="D14">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
       <c r="E14">
-        <v>53.14</v>
+        <v>244.73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>47.83</v>
+        <v>220.26</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>220.26</v>
       </c>
       <c r="D15">
-        <v>47.83</v>
+        <v>220.26</v>
       </c>
       <c r="E15">
-        <v>59.05</v>
+        <v>271.93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>244.73</v>
       </c>
       <c r="C16">
-        <v>65.61</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>53.14</v>
+        <v>244.73</v>
       </c>
       <c r="E16">
-        <v>65.61</v>
+        <v>302.14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>59.05</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>72.900000000000006</v>
+        <v>335.71</v>
       </c>
       <c r="D17">
-        <v>59.05</v>
+        <v>271.93</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>335.71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>31.38</v>
+        <v>302.14</v>
       </c>
       <c r="C18">
-        <v>25.42</v>
+        <v>373.01</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>302.14</v>
       </c>
       <c r="E18">
-        <v>31.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>34.869999999999997</v>
+        <v>160.57</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>130.06</v>
       </c>
       <c r="D19">
-        <v>28.24</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>34.869999999999997</v>
+        <v>160.57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>38.74</v>
+        <v>178.41</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>31.38</v>
+        <v>144.51</v>
       </c>
       <c r="E20">
-        <v>38.74</v>
+        <v>178.41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
       <c r="C21">
-        <v>34.869999999999997</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>34.869999999999997</v>
+        <v>160.57</v>
       </c>
       <c r="E21">
-        <v>43.05</v>
+        <v>198.23</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>47.83</v>
+        <v>220.26</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>178.41</v>
       </c>
       <c r="D22">
-        <v>38.74</v>
+        <v>178.41</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>220.26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>244.73</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>198.23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -954,50 +930,50 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>59.05</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>65.61</v>
+        <v>302.14</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>373.01</v>
       </c>
       <c r="D25">
-        <v>65.61</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>373.01</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>28.24</v>
+        <v>335.71</v>
       </c>
       <c r="C26">
-        <v>22.88</v>
+        <v>414.46</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>335.71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1005,13 +981,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>144.51</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>117.06</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1022,7 +998,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1039,10 +1015,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>38.74</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1056,10 +1032,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>198.23</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1073,7 +1049,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1090,101 +1066,101 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>65.61</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>72.900000000000006</v>
+        <v>335.71</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>414.46</v>
       </c>
       <c r="D33">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>414.46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>25.42</v>
+        <v>373.01</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>460.51</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>373.01</v>
       </c>
       <c r="E34">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>130.06</v>
       </c>
       <c r="C35">
-        <v>18.53</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>22.88</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>18.53</v>
+        <v>105.35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>16.68</v>
+        <v>94.81</v>
       </c>
       <c r="D36">
-        <v>20.59</v>
+        <v>117.06</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>94.81</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>85.33</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>105.35</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1192,7 +1168,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1209,67 +1185,67 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>90</v>
+        <v>411.68</v>
       </c>
       <c r="D40">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>90</v>
+        <v>414.46</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>81</v>
+        <v>373.01</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>460.51</v>
       </c>
       <c r="D41">
-        <v>81</v>
+        <v>373.01</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>460.51</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>414.46</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>511.68</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>414.46</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1277,10 +1253,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>20.59</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1289,38 +1265,38 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>16.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>18.53</v>
+        <v>105.35</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>18.53</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>85.33</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>94.81</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>94.81</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1328,7 +1304,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1340,66 +1316,83 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>72.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>90</v>
+        <v>408.24</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>81</v>
+        <v>373.01</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>81</v>
+        <v>367.42</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>457.42</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>414.46</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>411.68</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>511.68</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>448.89</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>457.42</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B50">
-        <v>36</v>
+      <c r="B51">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1409,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,50 +1430,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.05</v>
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1488,67 +1481,67 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="D7">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1556,13 +1549,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1573,237 +1566,237 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02</v>
+        <v>8.33</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="E13">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="C14">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="D14">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="E14">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="D15">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="E15">
-        <v>3.13</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="C16">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="E16">
-        <v>6.25</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="D17">
-        <v>3.13</v>
+        <v>2.08</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.05</v>
+        <v>4.17</v>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>16.66</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E21">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1811,50 +1804,50 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>6.25</v>
+        <v>4.17</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>16.66</v>
       </c>
       <c r="D25">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>0.02</v>
+        <v>8.33</v>
       </c>
       <c r="C26">
-        <v>0.01</v>
+        <v>33.33</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>8.33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1862,13 +1855,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1879,7 +1872,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1896,10 +1889,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1913,10 +1906,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1930,7 +1923,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1947,50 +1940,50 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="D33">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>16.66</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1998,16 +1991,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2015,7 +2008,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2024,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2032,7 +2025,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2049,7 +2042,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2066,67 +2059,67 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>33.32</v>
       </c>
       <c r="D40">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>16.66</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>16.66</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>66.650000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>133.31</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2134,7 +2127,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2151,7 +2144,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2168,7 +2161,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2185,7 +2178,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2197,66 +2190,83 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>25</v>
+        <v>16.66</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>16.64</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>33.32</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>133.30000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>66.62</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B50">
-        <v>101</v>
+      <c r="B51">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/QAStar/QLearning.xlsx
+++ b/QAStar/QLearning.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lr1dr.9max500ep150" sheetId="1" r:id="rId1"/>
     <sheet name="lr.5dr.5max500ep150" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="lr.7dr.7max500ep150" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t>Starting position</t>
   </si>
@@ -1404,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,12 +2276,856 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3.86</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5.52</v>
+      </c>
+      <c r="D4">
+        <v>2.7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>11.26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>16.09</v>
+      </c>
+      <c r="D7">
+        <v>7.88</v>
+      </c>
+      <c r="E7">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>22.99</v>
+      </c>
+      <c r="D8">
+        <v>11.26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>46.96</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2.7</v>
+      </c>
+      <c r="C11">
+        <v>2.7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>3.86</v>
+      </c>
+      <c r="C12">
+        <v>3.86</v>
+      </c>
+      <c r="D12">
+        <v>3.86</v>
+      </c>
+      <c r="E12">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.52</v>
+      </c>
+      <c r="D13">
+        <v>5.52</v>
+      </c>
+      <c r="E13">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>7.88</v>
+      </c>
+      <c r="C14">
+        <v>7.88</v>
+      </c>
+      <c r="D14">
+        <v>7.88</v>
+      </c>
+      <c r="E14">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>11.26</v>
+      </c>
+      <c r="C15">
+        <v>11.26</v>
+      </c>
+      <c r="D15">
+        <v>11.26</v>
+      </c>
+      <c r="E15">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>16.09</v>
+      </c>
+      <c r="E16">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>46.95</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="C18">
+        <v>67.09</v>
+      </c>
+      <c r="D18">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>3.86</v>
+      </c>
+      <c r="C19">
+        <v>1.89</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>5.52</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2.7</v>
+      </c>
+      <c r="E20">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>7.88</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3.86</v>
+      </c>
+      <c r="E21">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>11.26</v>
+      </c>
+      <c r="C22">
+        <v>5.52</v>
+      </c>
+      <c r="D22">
+        <v>5.52</v>
+      </c>
+      <c r="E22">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>16.09</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>7.88</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>32.86</v>
+      </c>
+      <c r="C25">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>46.96</v>
+      </c>
+      <c r="C26">
+        <v>95.86</v>
+      </c>
+      <c r="D26">
+        <v>46.96</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>2.7</v>
+      </c>
+      <c r="C27">
+        <v>1.32</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>7.88</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>46.9</v>
+      </c>
+      <c r="C33">
+        <v>95.83</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>95.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>67.09</v>
+      </c>
+      <c r="C34">
+        <v>136.94</v>
+      </c>
+      <c r="D34">
+        <v>67.06</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>1.89</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0.65</v>
+      </c>
+      <c r="D36">
+        <v>1.32</v>
+      </c>
+      <c r="E36">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.45</v>
+      </c>
+      <c r="D37">
+        <v>0.93</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>95.79</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>95.85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="C41">
+        <v>136.88999999999999</v>
+      </c>
+      <c r="D41">
+        <v>67.02</v>
+      </c>
+      <c r="E41">
+        <v>136.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>95.85</v>
+      </c>
+      <c r="C42">
+        <v>195.67</v>
+      </c>
+      <c r="D42">
+        <v>95.83</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>0.93</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>0.65</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.65</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>95.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>67.03</v>
+      </c>
+      <c r="E48">
+        <v>136.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
+        <v>95.81</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>95.67</v>
+      </c>
+      <c r="E49">
+        <v>195.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>135.97999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>136.69</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>